--- a/data-raw/bio scraps.xlsx
+++ b/data-raw/bio scraps.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1040068/Dropbox/hcdb/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B017752-5B58-A44B-9059-B852385576E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321D2A46-73DB-FB48-B57D-F61D8806C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="1240" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D6A8B97D-DBDC-6240-8CB8-918C4D2AAE8F}"/>
+    <workbookView xWindow="1260" yWindow="2920" windowWidth="28040" windowHeight="17440" firstSheet="9" activeTab="17" xr2:uid="{D6A8B97D-DBDC-6240-8CB8-918C4D2AAE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="varReligionSpecific" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="varRace" sheetId="2" r:id="rId2"/>
+    <sheet name="varPostOccupation" sheetId="3" r:id="rId3"/>
+    <sheet name="varChildhoodLocation" sheetId="4" r:id="rId4"/>
+    <sheet name="varChildhoodLocationSpecific" sheetId="5" r:id="rId5"/>
+    <sheet name="varChildhoodSurrounds" sheetId="6" r:id="rId6"/>
+    <sheet name="varEconomicStatus" sheetId="7" r:id="rId7"/>
+    <sheet name="varOccupation" sheetId="8" r:id="rId8"/>
+    <sheet name="varHighSchool" sheetId="9" r:id="rId9"/>
+    <sheet name="varDegreeType" sheetId="10" r:id="rId10"/>
+    <sheet name="varUni" sheetId="11" r:id="rId11"/>
+    <sheet name="varDegreeStatus" sheetId="12" r:id="rId12"/>
+    <sheet name="varAcMedal" sheetId="13" r:id="rId13"/>
+    <sheet name="varOverseasScholarshop" sheetId="14" r:id="rId14"/>
+    <sheet name="varOSStudy" sheetId="15" r:id="rId15"/>
+    <sheet name="varOSStudyLocation" sheetId="16" r:id="rId16"/>
+    <sheet name="varGraduateDegree" sheetId="17" r:id="rId17"/>
+    <sheet name="varGradDegreeInst" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>1 Christian—Anglican</t>
   </si>
@@ -130,6 +146,279 @@
   </si>
   <si>
     <t>32 Other Spiritual Beliefs</t>
+  </si>
+  <si>
+    <t>1 White</t>
+  </si>
+  <si>
+    <t>2 Asian</t>
+  </si>
+  <si>
+    <t>3 Indigenous</t>
+  </si>
+  <si>
+    <t>4 Black</t>
+  </si>
+  <si>
+    <t>1 Barrister</t>
+  </si>
+  <si>
+    <t>2 Academic (honorary)</t>
+  </si>
+  <si>
+    <t>3 Academic (faculty)</t>
+  </si>
+  <si>
+    <t>4 Academic (administrative, e.g., VC)</t>
+  </si>
+  <si>
+    <t>5 Foreign judicial service</t>
+  </si>
+  <si>
+    <t>6 International judicial service</t>
+  </si>
+  <si>
+    <t>7 Commissioner (Cth)</t>
+  </si>
+  <si>
+    <t>8 Commissioner (state)</t>
+  </si>
+  <si>
+    <t>9 Director/chair of foundation or similar organization</t>
+  </si>
+  <si>
+    <t>10 Governor-General</t>
+  </si>
+  <si>
+    <t>11 Other government service (Cth)</t>
+  </si>
+  <si>
+    <t>12 Other government service (state)</t>
+  </si>
+  <si>
+    <t>1 Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>2 New South Wales</t>
+  </si>
+  <si>
+    <t>3 Northern Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Queensland </t>
+  </si>
+  <si>
+    <t>5 South Australia</t>
+  </si>
+  <si>
+    <t>6 Tasmania</t>
+  </si>
+  <si>
+    <t>7 Victoria</t>
+  </si>
+  <si>
+    <t>8 Western Australia</t>
+  </si>
+  <si>
+    <t>9 UK</t>
+  </si>
+  <si>
+    <t>10 USA</t>
+  </si>
+  <si>
+    <t>1 Capital city</t>
+  </si>
+  <si>
+    <t>2 Town</t>
+  </si>
+  <si>
+    <t>1 Family farm</t>
+  </si>
+  <si>
+    <t>2 Rural</t>
+  </si>
+  <si>
+    <t>3 Small town</t>
+  </si>
+  <si>
+    <t>4 Small city</t>
+  </si>
+  <si>
+    <t>5 Urban (large/larger city)</t>
+  </si>
+  <si>
+    <t>1 Lower</t>
+  </si>
+  <si>
+    <t>2 Lower-middle</t>
+  </si>
+  <si>
+    <t>3 Middle</t>
+  </si>
+  <si>
+    <t>4 Upper-middle</t>
+  </si>
+  <si>
+    <t>5 Upper</t>
+  </si>
+  <si>
+    <t>1 Homemaker</t>
+  </si>
+  <si>
+    <t>2 Politics</t>
+  </si>
+  <si>
+    <t>3 Public service</t>
+  </si>
+  <si>
+    <t>4 Professional, employee</t>
+  </si>
+  <si>
+    <t>5 Military</t>
+  </si>
+  <si>
+    <t>6 Professional, self-employed</t>
+  </si>
+  <si>
+    <t>7 Blue collar</t>
+  </si>
+  <si>
+    <t>8 Lawyer</t>
+  </si>
+  <si>
+    <t>9 Academic</t>
+  </si>
+  <si>
+    <t>10 Teacher</t>
+  </si>
+  <si>
+    <t>11 Administrative role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Public </t>
+  </si>
+  <si>
+    <t>2 Private—coeducational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Private—single sex </t>
+  </si>
+  <si>
+    <t>1 Bachelor of Laws</t>
+  </si>
+  <si>
+    <t>2 Bachelor of Arts</t>
+  </si>
+  <si>
+    <t>3 Bachelor of Economics</t>
+  </si>
+  <si>
+    <t>4 Bachelor of Commerce</t>
+  </si>
+  <si>
+    <t>5 Bachelor of Jurisprudence</t>
+  </si>
+  <si>
+    <t>6 Bachelor of Science</t>
+  </si>
+  <si>
+    <t>1 Australian National University</t>
+  </si>
+  <si>
+    <t>2 Barristers Admission Board</t>
+  </si>
+  <si>
+    <t>3 University of Melbourne</t>
+  </si>
+  <si>
+    <t>4 University of Queensland</t>
+  </si>
+  <si>
+    <t>5 University of Sydney</t>
+  </si>
+  <si>
+    <t>6 University of Western Australia</t>
+  </si>
+  <si>
+    <t>7 Murdoch University</t>
+  </si>
+  <si>
+    <t>8 Oxford</t>
+  </si>
+  <si>
+    <t>1 Completed</t>
+  </si>
+  <si>
+    <t>2 Not completed</t>
+  </si>
+  <si>
+    <t>1 Law</t>
+  </si>
+  <si>
+    <t>2 Non-law</t>
+  </si>
+  <si>
+    <t>3 Law and non-law (multiple)</t>
+  </si>
+  <si>
+    <t>4 None recorded</t>
+  </si>
+  <si>
+    <t>1 Rhodes</t>
+  </si>
+  <si>
+    <t>2 Fulbright</t>
+  </si>
+  <si>
+    <t>3 Other</t>
+  </si>
+  <si>
+    <t>1 Studied overseas</t>
+  </si>
+  <si>
+    <t>2 Did not study overseas</t>
+  </si>
+  <si>
+    <t>1 UK</t>
+  </si>
+  <si>
+    <t>2 USA</t>
+  </si>
+  <si>
+    <t>1 Doctor of Philosophy</t>
+  </si>
+  <si>
+    <t>2 Master of Laws</t>
+  </si>
+  <si>
+    <t>3 BCL</t>
+  </si>
+  <si>
+    <t>4 Other, law</t>
+  </si>
+  <si>
+    <t>5 Other, non-law</t>
+  </si>
+  <si>
+    <t>1 Oxford</t>
+  </si>
+  <si>
+    <t>2 Cambridge</t>
+  </si>
+  <si>
+    <t>3 Harvard</t>
+  </si>
+  <si>
+    <t>4 Yale</t>
+  </si>
+  <si>
+    <t>5 University of Melbourne</t>
+  </si>
+  <si>
+    <t>6 University of Sydney</t>
+  </si>
+  <si>
+    <t>7 Hague</t>
   </si>
 </sst>
 </file>
@@ -177,12 +466,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +795,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D1:D32"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,12 +965,12 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Assyrian Apostolic</v>
+        <f>RIGHT(A10,LEN(A10)-3)</f>
+        <v>Christian—Assyrian Apostolic</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>` Christian—Assyrian Apostolic` = 10,</v>
+        <v>`Christian—Assyrian Apostolic` = 10,</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -687,12 +982,12 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Eastern Orthodox</v>
+        <f t="shared" ref="C11:C32" si="3">RIGHT(A11,LEN(A11)-3)</f>
+        <v>Christian—Eastern Orthodox</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
-        <v>` Christian—Eastern Orthodox` = 11,</v>
+        <f t="shared" ref="D11:D32" si="4">_xlfn.CONCAT("`",C11,"` = ",B11,",")</f>
+        <v>`Christian—Eastern Orthodox` = 11,</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -704,12 +999,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Presbyterian and Reformed</v>
+        <f t="shared" si="3"/>
+        <v>Christian—Presbyterian and Reformed</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>` Christian—Presbyterian and Reformed` = 12,</v>
+        <f t="shared" si="4"/>
+        <v>`Christian—Presbyterian and Reformed` = 12,</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -721,12 +1016,12 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Salvation Army</v>
+        <f t="shared" si="3"/>
+        <v>Christian—Salvation Army</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>` Christian—Salvation Army` = 13,</v>
+        <f t="shared" si="4"/>
+        <v>`Christian—Salvation Army` = 13,</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -738,12 +1033,12 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Seventh-day Adventist</v>
+        <f t="shared" si="3"/>
+        <v>Christian—Seventh-day Adventist</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>` Christian—Seventh-day Adventist` = 14,</v>
+        <f t="shared" si="4"/>
+        <v>`Christian—Seventh-day Adventist` = 14,</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -755,12 +1050,12 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Uniting Church</v>
+        <f t="shared" si="3"/>
+        <v>Christian—Uniting Church</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>` Christian—Uniting Church` = 15,</v>
+        <f t="shared" si="4"/>
+        <v>`Christian—Uniting Church` = 15,</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -772,12 +1067,12 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Christian—Pentecostal</v>
+        <f t="shared" si="3"/>
+        <v>Christian—Pentecostal</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>` Christian—Pentecostal` = 16,</v>
+        <f t="shared" si="4"/>
+        <v>`Christian—Pentecostal` = 16,</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -789,12 +1084,12 @@
         <v>17</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Other Christian</v>
+        <f t="shared" si="3"/>
+        <v>Other Christian</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>` Other Christian` = 17,</v>
+        <f t="shared" si="4"/>
+        <v>`Other Christian` = 17,</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -806,12 +1101,12 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Hinduism</v>
+        <f t="shared" si="3"/>
+        <v>Hinduism</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>` Hinduism` = 18,</v>
+        <f t="shared" si="4"/>
+        <v>`Hinduism` = 18,</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -823,12 +1118,12 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Islam</v>
+        <f t="shared" si="3"/>
+        <v>Islam</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>` Islam` = 19,</v>
+        <f t="shared" si="4"/>
+        <v>`Islam` = 19,</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -840,12 +1135,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Judaism</v>
+        <f t="shared" si="3"/>
+        <v>Judaism</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>` Judaism` = 20,</v>
+        <f t="shared" si="4"/>
+        <v>`Judaism` = 20,</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -857,12 +1152,12 @@
         <v>21</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Australian Aboriginal Traditional Religions</v>
+        <f t="shared" si="3"/>
+        <v>Australian Aboriginal Traditional Religions</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>` Australian Aboriginal Traditional Religions` = 21,</v>
+        <f t="shared" si="4"/>
+        <v>`Australian Aboriginal Traditional Religions` = 21,</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -874,12 +1169,12 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Baha'i</v>
+        <f t="shared" si="3"/>
+        <v>Baha'i</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>` Baha'i` = 22,</v>
+        <f t="shared" si="4"/>
+        <v>`Baha'i` = 22,</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -891,12 +1186,12 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Chinese Religions</v>
+        <f t="shared" si="3"/>
+        <v>Chinese Religions</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>` Chinese Religions` = 23,</v>
+        <f t="shared" si="4"/>
+        <v>`Chinese Religions` = 23,</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -908,12 +1203,12 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Druse</v>
+        <f t="shared" si="3"/>
+        <v>Druse</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>` Druse` = 24,</v>
+        <f t="shared" si="4"/>
+        <v>`Druse` = 24,</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -925,12 +1220,12 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Japanese Religions</v>
+        <f t="shared" si="3"/>
+        <v>Japanese Religions</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>` Japanese Religions` = 25,</v>
+        <f t="shared" si="4"/>
+        <v>`Japanese Religions` = 25,</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -942,12 +1237,12 @@
         <v>26</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Nature Religions</v>
+        <f t="shared" si="3"/>
+        <v>Nature Religions</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>` Nature Religions` = 26,</v>
+        <f t="shared" si="4"/>
+        <v>`Nature Religions` = 26,</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -959,12 +1254,12 @@
         <v>27</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Sikhism</v>
+        <f t="shared" si="3"/>
+        <v>Sikhism</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>` Sikhism` = 27,</v>
+        <f t="shared" si="4"/>
+        <v>`Sikhism` = 27,</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -976,12 +1271,12 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Spiritualism</v>
+        <f t="shared" si="3"/>
+        <v>Spiritualism</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>` Spiritualism` = 28,</v>
+        <f t="shared" si="4"/>
+        <v>`Spiritualism` = 28,</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -993,12 +1288,12 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Miscellaneous Religions</v>
+        <f t="shared" si="3"/>
+        <v>Miscellaneous Religions</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>` Miscellaneous Religions` = 29,</v>
+        <f t="shared" si="4"/>
+        <v>`Miscellaneous Religions` = 29,</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -1010,12 +1305,12 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> No Religion, so described</v>
+        <f t="shared" si="3"/>
+        <v>No Religion, so described</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>` No Religion, so described` = 30,</v>
+        <f t="shared" si="4"/>
+        <v>`No Religion, so described` = 30,</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -1027,12 +1322,12 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Secular Beliefs</v>
+        <f t="shared" si="3"/>
+        <v>Secular Beliefs</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>` Secular Beliefs` = 31,</v>
+        <f t="shared" si="4"/>
+        <v>`Secular Beliefs` = 31,</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -1044,12 +1339,853 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Other Spiritual Beliefs</v>
+        <f t="shared" si="3"/>
+        <v>Other Spiritual Beliefs</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>` Other Spiritual Beliefs` = 32,</v>
+        <f t="shared" si="4"/>
+        <v>`Other Spiritual Beliefs` = 32,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE34A29-2BD9-DE45-8DFD-91CEF17EAE9C}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Bachelor of Laws</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Bachelor of Laws` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B6" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C6" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Bachelor of Arts</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D6" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Bachelor of Arts` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bachelor of Economics</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Bachelor of Economics` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bachelor of Commerce</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`Bachelor of Commerce` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bachelor of Jurisprudence</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>`Bachelor of Jurisprudence` = 5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bachelor of Science</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>`Bachelor of Science` = 6,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D14364F-41E1-6945-8B9C-583EA5D39F73}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Australian National University</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Australian National University` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B8" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C8" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Barristers Admission Board</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D8" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Barristers Admission Board` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>University of Melbourne</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`University of Melbourne` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>University of Queensland</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`University of Queensland` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>University of Sydney</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>`University of Sydney` = 5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>University of Western Australia</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>`University of Western Australia` = 6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Murdoch University</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>`Murdoch University` = 7,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Oxford</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>`Oxford` = 8,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6A342-5B48-A74B-A7F4-29F9A38A0EF2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Completed</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Completed` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Not completed</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Not completed` = 2,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC904AB2-826A-9645-95B9-6B8C01D991B7}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Law</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Law` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B4" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C4" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Non-law</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Non-law` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Law and non-law (multiple)</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Law and non-law (multiple)` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>None recorded</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`None recorded` = 4,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D75A82-8755-3749-8154-7DA9995BC319}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Rhodes</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Rhodes` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B4" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C4" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Fulbright</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Fulbright` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Other</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Other` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>None recorded</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`None recorded` = 4,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2B6F51-D6E7-3E45-9F44-61432DF1C9CC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Studied overseas</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Studied overseas` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Did not study overseas</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Did not study overseas` = 2,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E502A361-88BB-8741-95E4-CD0CEDAB87E6}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>UK</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`UK` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B3" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C3" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>USA</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D3" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`USA` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Other</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Other` = 3,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99852D-6DA1-3A4A-ADEE-97E7E890781E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Doctor of Philosophy</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Doctor of Philosophy` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B5" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C5" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Master of Laws</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D5" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Master of Laws` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BCL</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`BCL` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Other, law</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`Other, law` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Other, non-law</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>`Other, non-law` = 5,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68540327-6F77-A54C-99A8-B99B0A25A6F3}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Oxford</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Oxford` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B7" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C7" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Cambridge</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D7" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Cambridge` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Harvard` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Yale</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`Yale` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>University of Melbourne</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>`University of Melbourne` = 5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>University of Sydney</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>`University of Sydney` = 6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hague</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>`Hague` = 7,</v>
       </c>
     </row>
   </sheetData>
@@ -1060,12 +2196,1012 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1FB3D8-803B-6547-B2FC-227B7DB4D49F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>White</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`White` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B4" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C4" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Asian</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Asian` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Indigenous</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Indigenous` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Black</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`Black` = 4,</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780F9F61-6E35-B846-939F-B019A2C9F492}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Barrister</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Barrister` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B12" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C10" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>Academic (honorary)</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D10" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Academic (honorary)` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Academic (faculty)</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Academic (faculty)` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Academic (administrative, e.g., VC)</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`Academic (administrative, e.g., VC)` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Foreign judicial service</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>`Foreign judicial service` = 5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>International judicial service</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>`International judicial service` = 6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Commissioner (Cth)</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>`Commissioner (Cth)` = 7,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Commissioner (state)</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>`Commissioner (state)` = 8,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Director/chair of foundation or similar organization</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>`Director/chair of foundation or similar organization` = 9,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>RIGHT(A10,LEN(A10)-3)</f>
+        <v>Governor-General</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>`Governor-General` = 10,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" ref="C11:C12" si="3">RIGHT(A11,LEN(A11)-3)</f>
+        <v>Other government service (Cth)</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D12" si="4">_xlfn.CONCAT("`",C11,"` = ",B11,",")</f>
+        <v>`Other government service (Cth)` = 11,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Other government service (state)</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="4"/>
+        <v>`Other government service (state)` = 12,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0600AB30-AB07-D147-AC4E-F1203DEF0996}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Australian Capital Territory` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B10" si="0">LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C9" si="1">RIGHT(A2,LEN(A2)-2)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D9" si="2">_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`New South Wales` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Northern Territory</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>`Northern Territory` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Queensland </v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>`Queensland ` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>South Australia</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>`South Australia` = 5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tasmania</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>`Tasmania` = 6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Victoria</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>`Victoria` = 7,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Western Australia</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>`Western Australia` = 8,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>UK</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>`UK` = 9,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>RIGHT(A10,LEN(A10)-3)</f>
+        <v>USA</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10" si="3">_xlfn.CONCAT("`",C10,"` = ",B10,",")</f>
+        <v>`USA` = 10,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78134924-6C85-FD42-B9A1-99A99DDA776D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Capital city</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Capital city` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>RIGHT(A2,LEN(A2)-2)</f>
+        <v>Town</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Town` = 2,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F5A7FC-D6FF-7246-BF9D-D7A4F16EF3EB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Family farm</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Family farm` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>RIGHT(A2,LEN(A2)-2)</f>
+        <v>Rural</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Rural` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>LEFT(A3, SEARCH(" ",A3,1)-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>RIGHT(A3,LEN(A3)-2)</f>
+        <v>Small town</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("`",C3,"` = ",B3,",")</f>
+        <v>`Small town` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>LEFT(A4, SEARCH(" ",A4,1)-1)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>RIGHT(A4,LEN(A4)-2)</f>
+        <v>Small city</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT("`",C4,"` = ",B4,",")</f>
+        <v>`Small city` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>LEFT(A5, SEARCH(" ",A5,1)-1)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>RIGHT(A5,LEN(A5)-2)</f>
+        <v>Urban (large/larger city)</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT("`",C5,"` = ",B5,",")</f>
+        <v>`Urban (large/larger city)` = 5,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A1CEE6-2A8E-7049-B90A-D01EE4683CAF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Lower</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Lower` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>RIGHT(A2,LEN(A2)-2)</f>
+        <v>Lower-middle</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Lower-middle` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>LEFT(A3, SEARCH(" ",A3,1)-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>RIGHT(A3,LEN(A3)-2)</f>
+        <v>Middle</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("`",C3,"` = ",B3,",")</f>
+        <v>`Middle` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>LEFT(A4, SEARCH(" ",A4,1)-1)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>RIGHT(A4,LEN(A4)-2)</f>
+        <v>Upper-middle</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT("`",C4,"` = ",B4,",")</f>
+        <v>`Upper-middle` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>LEFT(A5, SEARCH(" ",A5,1)-1)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>RIGHT(A5,LEN(A5)-2)</f>
+        <v>Upper</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT("`",C5,"` = ",B5,",")</f>
+        <v>`Upper` = 5,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED511BAE-2B49-B546-81BC-A3FC1C1F89BB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v>Homemaker</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Homemaker` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>RIGHT(A2,LEN(A2)-2)</f>
+        <v>Politics</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Politics` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>LEFT(A3, SEARCH(" ",A3,1)-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>RIGHT(A3,LEN(A3)-2)</f>
+        <v>Public service</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("`",C3,"` = ",B3,",")</f>
+        <v>`Public service` = 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>LEFT(A4, SEARCH(" ",A4,1)-1)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>RIGHT(A4,LEN(A4)-2)</f>
+        <v>Professional, employee</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT("`",C4,"` = ",B4,",")</f>
+        <v>`Professional, employee` = 4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>LEFT(A5, SEARCH(" ",A5,1)-1)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>RIGHT(A5,LEN(A5)-2)</f>
+        <v>Military</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT("`",C5,"` = ",B5,",")</f>
+        <v>`Military` = 5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>LEFT(A6, SEARCH(" ",A6,1)-1)</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>RIGHT(A6,LEN(A6)-2)</f>
+        <v>Professional, self-employed</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT("`",C6,"` = ",B6,",")</f>
+        <v>`Professional, self-employed` = 6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>LEFT(A7, SEARCH(" ",A7,1)-1)</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>RIGHT(A7,LEN(A7)-2)</f>
+        <v>Blue collar</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.CONCAT("`",C7,"` = ",B7,",")</f>
+        <v>`Blue collar` = 7,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>LEFT(A8, SEARCH(" ",A8,1)-1)</f>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>RIGHT(A8,LEN(A8)-2)</f>
+        <v>Lawyer</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("`",C8,"` = ",B8,",")</f>
+        <v>`Lawyer` = 8,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>LEFT(A9, SEARCH(" ",A9,1)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>RIGHT(A9,LEN(A9)-2)</f>
+        <v>Academic</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("`",C9,"` = ",B9,",")</f>
+        <v>`Academic` = 9,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>LEFT(A10, SEARCH(" ",A10,1)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>RIGHT(A10,LEN(A10)-3)</f>
+        <v>Teacher</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("`",C10,"` = ",B10,",")</f>
+        <v>`Teacher` = 10,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>LEFT(A11, SEARCH(" ",A11,1)-1)</f>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>RIGHT(A11,LEN(A11)-3)</f>
+        <v>Administrative role</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("`",C11,"` = ",B11,",")</f>
+        <v>`Administrative role` = 11,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D830EC-FD64-BD4A-9C78-B1CE493B33AC}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>LEFT(A1, SEARCH(" ",A1,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>RIGHT(A1,LEN(A1)-2)</f>
+        <v xml:space="preserve">Public </v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("`",C1,"` = ",B1,",")</f>
+        <v>`Public ` = 1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LEFT(A2, SEARCH(" ",A2,1)-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>RIGHT(A2,LEN(A2)-2)</f>
+        <v>Private—coeducational</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("`",C2,"` = ",B2,",")</f>
+        <v>`Private—coeducational` = 2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>LEFT(A3, SEARCH(" ",A3,1)-1)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>RIGHT(A3,LEN(A3)-2)</f>
+        <v xml:space="preserve">Private—single sex </v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("`",C3,"` = ",B3,",")</f>
+        <v>`Private—single sex ` = 3,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>